--- a/RailsClient/sync_file/storage.xlsx
+++ b/RailsClient/sync_file/storage.xlsx
@@ -67,15 +67,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.28988764044944"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.589887640449438"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="18.48988764044944"/>
   </cols>
   <sheetData>
@@ -103,55 +103,217 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>101020003</v>
+        <v>201010001</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>J201605260001</t>
+          <t>000014-2</t>
         </is>
       </c>
       <c r="C2" s="0" t="n">
-        <v>5000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>2016-05-24 00:00</t>
+          <t>2016-10-17 16:48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>101020003</v>
+        <v>201010001</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>J201605260002</t>
+          <t>000014-3</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>2016-05-24 00:00</t>
+          <t>2016-10-17 16:50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>101020003</v>
+        <v>201010001</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>J201605260003</t>
+          <t>000014-4</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>5000.0</v>
+        <v>100.0</v>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>2016-05-24 00:00</t>
+          <t>2016-10-17 16:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>201010008</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>000015-1</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 16:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>000014-6</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 17:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>000014-7</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>000014-8</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>000014-9</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>000014-10</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>000019-1</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 18:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>000019-2</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 18:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>201010001</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>000019-3</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-17 18:43</t>
         </is>
       </c>
     </row>

--- a/RailsClient/sync_file/storage.xlsx
+++ b/RailsClient/sync_file/storage.xlsx
@@ -67,16 +67,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.289887640449439"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="5.289887640449439"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.989887640449439"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.78988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.48988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -98,6 +98,204 @@
       <c r="D1" s="0" t="inlineStr">
         <is>
           <t>时间</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>201010004</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>100046-1</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>201010004</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>100046-2</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>201010004</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>100046-3</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>201010003</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>100047-1</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>201010003</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>100047-2</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>201010003</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>100047-3</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>201010007</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>100044-1</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>201010007</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>100044-2</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>201010007</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>100044-3</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>201010007</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>100044-4</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>201010007</v>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>100044-5</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21 12:04</t>
         </is>
       </c>
     </row>
